--- a/medicine/Médecine vétérinaire/Virus_de_la_grippe_A_(H6N1)/Virus_de_la_grippe_A_(H6N1).xlsx
+++ b/medicine/Médecine vétérinaire/Virus_de_la_grippe_A_(H6N1)/Virus_de_la_grippe_A_(H6N1).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-type H6N1 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 6 et la neuraminidase de type 1. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae. Apparenté au sous-type H5N1[2], le sous-type H6N1 infecte notamment les sarcelles d'hiver et n'a que rarement été observé chez l'homme[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-type H6N1 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 6 et la neuraminidase de type 1. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae. Apparenté au sous-type H5N1, le sous-type H6N1 infecte notamment les sarcelles d'hiver et n'a que rarement été observé chez l'homme.
 </t>
         </is>
       </c>
